--- a/PEratio_valuation/data.xlsx
+++ b/PEratio_valuation/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="540" windowWidth="25040" windowHeight="14020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1561"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:E1561"/>
+    <sheetView tabSelected="1" topLeftCell="A1545" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A1559" sqref="A1559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26990,7 +26990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -49047,7 +49047,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
